--- a/Businesses_Month.xlsx
+++ b/Businesses_Month.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackkellett/Documents/SecondYearUni/VIP/Test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/70735d52a2925493/Documents/malawi-microgrids-VIP4SD-main/malawi-microgrids-VIP4SD-main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56538BA-D8D8-7D41-BB2B-1F356611A6E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{F56538BA-D8D8-7D41-BB2B-1F356611A6E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13CB7013-4505-4DE8-BDA3-A87EB3E96974}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="4360" windowWidth="28040" windowHeight="16460" xr2:uid="{2CDE2AF4-C326-6941-A8F9-9708E4D7E41C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{2CDE2AF4-C326-6941-A8F9-9708E4D7E41C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>Date</t>
   </si>
@@ -109,6 +109,105 @@
   </si>
   <si>
     <t xml:space="preserve"> March 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> March 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> April 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> May 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> June 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> July 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> August 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> September 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> October 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> November 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> December 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> January 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> February 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> April 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> May 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> June 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> July 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> August 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> September 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> October 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> November 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> December 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> January 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> February 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> March 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> April 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> May 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> June 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> July 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> August 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> September 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> October 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> November 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> December 2024</t>
   </si>
 </sst>
 </file>
@@ -171,9 +270,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -211,7 +310,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -317,7 +416,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -459,7 +558,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -467,20 +566,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811C6FAF-EDF4-B74F-9D8B-2531D287111A}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="74" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -491,7 +590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -502,7 +601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -513,7 +612,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -524,7 +623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -535,7 +634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -546,7 +645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -557,7 +656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -568,7 +667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -579,7 +678,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -590,7 +689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -601,7 +700,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -612,7 +711,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -623,7 +722,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -634,7 +733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -645,7 +744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -656,7 +755,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -667,7 +766,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -678,7 +777,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -689,7 +788,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -700,7 +799,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -711,7 +810,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -722,7 +821,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -731,6 +830,369 @@
       </c>
       <c r="C23">
         <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39">
+        <v>37</v>
+      </c>
+      <c r="C39">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43">
+        <v>41</v>
+      </c>
+      <c r="C43">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44">
+        <v>42</v>
+      </c>
+      <c r="C44">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45">
+        <v>43</v>
+      </c>
+      <c r="C45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46">
+        <v>44</v>
+      </c>
+      <c r="C46">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47">
+        <v>45</v>
+      </c>
+      <c r="C47">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48">
+        <v>46</v>
+      </c>
+      <c r="C48">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49">
+        <v>47</v>
+      </c>
+      <c r="C49">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50">
+        <v>48</v>
+      </c>
+      <c r="C50">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51">
+        <v>49</v>
+      </c>
+      <c r="C51">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52">
+        <v>50</v>
+      </c>
+      <c r="C52">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53">
+        <v>51</v>
+      </c>
+      <c r="C53">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54">
+        <v>52</v>
+      </c>
+      <c r="C54">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55">
+        <v>53</v>
+      </c>
+      <c r="C55">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56">
+        <v>54</v>
+      </c>
+      <c r="C56">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
